--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -55,85 +58,88 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>highly</t>
   </si>
   <si>
     <t>easy</t>
@@ -142,36 +148,42 @@
     <t>kitchen</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
@@ -181,31 +193,22 @@
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>little</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -574,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4141414141414141</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4108527131782946</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,21 +730,45 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>155</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8808049535603715</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,21 +780,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8792569659442725</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,21 +806,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,21 +832,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7229437229437229</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,21 +858,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7123287671232876</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L9">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="M9">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,21 +910,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7016949152542373</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L11">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6753246753246753</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,21 +962,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6581059390048154</v>
+        <v>0.6476725521669342</v>
       </c>
       <c r="L13">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="M13">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,21 +988,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -992,16 +1019,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6470588235294118</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,21 +1040,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.631578947368421</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L17">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.578125</v>
+        <v>0.5625</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5576923076923077</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L19">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5538461538461539</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5428571428571428</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5416666666666666</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5329341317365269</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5301204819277109</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,47 +1300,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>34</v>
-      </c>
-      <c r="K26">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L26">
-        <v>30</v>
-      </c>
-      <c r="M26">
-        <v>30</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.47</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,47 +1352,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0.4461538461538462</v>
+      </c>
+      <c r="L28">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>36</v>
-      </c>
-      <c r="K28">
-        <v>0.4586466165413534</v>
-      </c>
-      <c r="L28">
-        <v>61</v>
-      </c>
-      <c r="M28">
-        <v>61</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.427710843373494</v>
+        <v>0.4</v>
       </c>
       <c r="L29">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1377,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4007782101167315</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L30">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="M30">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1403,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>154</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3872549019607843</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L31">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="M31">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1429,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>250</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3465753424657534</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L32">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1455,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>477</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.2966507177033493</v>
+        <v>0.3397260273972603</v>
       </c>
       <c r="L33">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="M33">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1481,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>147</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.2949640287769784</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1507,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>98</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.2857142857142857</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1533,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.2792792792792793</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1559,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.2685185185185185</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1585,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2518837459634015</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L38">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1611,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>695</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2450331125827815</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1637,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>114</v>
+        <v>697</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.231974921630094</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L40">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M40">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1663,47 +1690,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2163892445582586</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L41">
         <v>169</v>
       </c>
       <c r="M41">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>612</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2066225165562914</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L42">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M42">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1715,47 +1742,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.1815718157181572</v>
+        <v>0.1864864864864865</v>
       </c>
       <c r="L43">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M43">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.1586715867158671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1767,73 +1794,73 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1526195899772209</v>
+        <v>0.1503579952267303</v>
       </c>
       <c r="L45">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M45">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1513157894736842</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L46">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>387</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1479713603818616</v>
+        <v>0.1402214022140221</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1845,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>357</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1167883211678832</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L48">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M48">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1871,47 +1898,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1137931034482759</v>
+        <v>0.1337719298245614</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>257</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1111111111111111</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1923,137 +1950,137 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.09056956115779645</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L51">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>974</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.09041095890410959</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>332</v>
+        <v>986</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.08189655172413793</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="L53">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M53">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.05350553505535055</v>
+        <v>0.05826086956521739</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>513</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.05103806228373702</v>
+        <v>0.05545286506469501</v>
       </c>
       <c r="L55">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M55">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1097</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
